--- a/doc/Proposta2013-2017.xlsx
+++ b/doc/Proposta2013-2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15315" windowHeight="10545"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15315" windowHeight="21150"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Year 1</t>
   </si>
@@ -426,34 +426,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R76"/>
+  <dimension ref="A1:U73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="4.5703125" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" customWidth="1"/>
-    <col min="12" max="12" width="4.7109375" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="3" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
+    <col min="6" max="6" width="3.28515625" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="4" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" customWidth="1"/>
+    <col min="11" max="11" width="7" customWidth="1"/>
+    <col min="12" max="12" width="4" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" customWidth="1"/>
+    <col min="15" max="15" width="3.7109375" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" customWidth="1"/>
+    <col min="17" max="17" width="3.140625" customWidth="1"/>
+    <col min="18" max="18" width="6.7109375" customWidth="1"/>
+    <col min="19" max="19" width="7.28515625" customWidth="1"/>
+    <col min="20" max="20" width="2.7109375" customWidth="1"/>
+    <col min="21" max="21" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -469,18 +483,21 @@
         <v>9</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="K3" s="1" t="s">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="N3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1" t="s">
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -504,17 +521,24 @@
       <c r="K4" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -525,13 +549,16 @@
         <v>0</v>
       </c>
       <c r="K6">
+        <v>24000</v>
+      </c>
+      <c r="N6">
         <v>39000</v>
       </c>
-      <c r="P6">
+      <c r="S6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -553,29 +580,36 @@
         <v>3300</v>
       </c>
       <c r="J7">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="K7">
         <f>+SUM(K6+J7)</f>
+        <v>26500</v>
+      </c>
+      <c r="M7">
+        <v>2000</v>
+      </c>
+      <c r="N7">
+        <f>+SUM(N6+M7)</f>
         <v>41000</v>
       </c>
-      <c r="M7">
-        <f>+H7-K7</f>
+      <c r="P7">
+        <f>+H7-N7</f>
         <v>-37700</v>
       </c>
-      <c r="O7">
-        <v>230</v>
-      </c>
-      <c r="P7">
-        <f>+P6+O7</f>
-        <v>230</v>
-      </c>
-      <c r="R7" s="4">
-        <f>+(K7+P7)/60</f>
+      <c r="R7">
+        <v>230</v>
+      </c>
+      <c r="S7">
+        <f>+S6+R7</f>
+        <v>230</v>
+      </c>
+      <c r="U7" s="4">
+        <f>+(N7+S7)/60</f>
         <v>687.16666666666663</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2</v>
       </c>
@@ -597,35 +631,43 @@
       </c>
       <c r="J8">
         <f>+J7</f>
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8:K66" si="2">+SUM(K7+J8)</f>
+        <v>29000</v>
+      </c>
+      <c r="M8">
+        <f>+M7</f>
+        <v>2000</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ref="N8:N66" si="3">+SUM(N7+M8)</f>
         <v>43000</v>
       </c>
-      <c r="M8">
-        <f t="shared" ref="M8:M66" si="3">+H8-K8</f>
+      <c r="P8">
+        <f t="shared" ref="P8:P66" si="4">+H8-N8</f>
         <v>-36400</v>
       </c>
-      <c r="O8">
-        <f>+O7</f>
-        <v>230</v>
-      </c>
-      <c r="P8">
-        <f t="shared" ref="P8:P66" si="4">+P7+O8</f>
+      <c r="R8">
+        <f>+R7</f>
+        <v>230</v>
+      </c>
+      <c r="S8">
+        <f t="shared" ref="S8:S66" si="5">+S7+R8</f>
         <v>460</v>
       </c>
-      <c r="R8" s="4">
-        <f t="shared" ref="R8:R66" si="5">+(K8+P8)/60</f>
+      <c r="U8" s="4">
+        <f t="shared" ref="U8:U66" si="6">+(N8+S8)/60</f>
         <v>724.33333333333337</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>3</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="D9:D66" si="6">+D8</f>
+        <f t="shared" ref="D9:D66" si="7">+D8</f>
         <v>800</v>
       </c>
       <c r="E9">
@@ -633,7 +675,7 @@
         <v>2400</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9:G66" si="7">+G8</f>
+        <f t="shared" ref="G9:G66" si="8">+G8</f>
         <v>3300</v>
       </c>
       <c r="H9">
@@ -641,36 +683,44 @@
         <v>9900</v>
       </c>
       <c r="J9">
-        <f t="shared" ref="J9:J66" si="8">+J8</f>
-        <v>2000</v>
+        <f t="shared" ref="J9:J66" si="9">+J8</f>
+        <v>2500</v>
       </c>
       <c r="K9">
         <f t="shared" si="2"/>
+        <v>31500</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ref="M9:M66" si="10">+M8</f>
+        <v>2000</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
         <v>45000</v>
       </c>
-      <c r="M9">
-        <f t="shared" si="3"/>
+      <c r="P9">
+        <f t="shared" si="4"/>
         <v>-35100</v>
       </c>
-      <c r="O9">
-        <f t="shared" ref="O9:O66" si="9">+O8</f>
-        <v>230</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="4"/>
+      <c r="R9">
+        <f t="shared" ref="R9:R66" si="11">+R8</f>
+        <v>230</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="5"/>
         <v>690</v>
       </c>
-      <c r="R9" s="4">
-        <f t="shared" si="5"/>
+      <c r="U9" s="4">
+        <f t="shared" si="6"/>
         <v>761.5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>4</v>
       </c>
       <c r="D10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E10">
@@ -678,7 +728,7 @@
         <v>3200</v>
       </c>
       <c r="G10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H10">
@@ -686,36 +736,44 @@
         <v>13200</v>
       </c>
       <c r="J10">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K10">
         <f t="shared" si="2"/>
+        <v>34000</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
         <v>47000</v>
       </c>
-      <c r="M10">
-        <f t="shared" si="3"/>
+      <c r="P10">
+        <f t="shared" si="4"/>
         <v>-33800</v>
       </c>
-      <c r="O10">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="4"/>
+      <c r="R10">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="5"/>
         <v>920</v>
       </c>
-      <c r="R10" s="4">
-        <f t="shared" si="5"/>
+      <c r="U10" s="4">
+        <f t="shared" si="6"/>
         <v>798.66666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>5</v>
       </c>
       <c r="D11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E11">
@@ -723,7 +781,7 @@
         <v>4000</v>
       </c>
       <c r="G11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H11">
@@ -731,36 +789,44 @@
         <v>16500</v>
       </c>
       <c r="J11">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K11">
         <f t="shared" si="2"/>
+        <v>36500</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
         <v>49000</v>
       </c>
-      <c r="M11">
-        <f t="shared" si="3"/>
+      <c r="P11">
+        <f t="shared" si="4"/>
         <v>-32500</v>
       </c>
-      <c r="O11">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="4"/>
+      <c r="R11">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="5"/>
         <v>1150</v>
       </c>
-      <c r="R11" s="4">
-        <f t="shared" si="5"/>
+      <c r="U11" s="4">
+        <f t="shared" si="6"/>
         <v>835.83333333333337</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>6</v>
       </c>
       <c r="D12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E12">
@@ -768,7 +834,7 @@
         <v>4800</v>
       </c>
       <c r="G12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H12">
@@ -776,36 +842,44 @@
         <v>19800</v>
       </c>
       <c r="J12">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K12">
         <f t="shared" si="2"/>
+        <v>39000</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
         <v>51000</v>
       </c>
-      <c r="M12">
-        <f t="shared" si="3"/>
+      <c r="P12">
+        <f t="shared" si="4"/>
         <v>-31200</v>
       </c>
-      <c r="O12">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="4"/>
+      <c r="R12">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="5"/>
         <v>1380</v>
       </c>
-      <c r="R12" s="4">
-        <f t="shared" si="5"/>
+      <c r="U12" s="4">
+        <f t="shared" si="6"/>
         <v>873</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>7</v>
       </c>
       <c r="D13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E13">
@@ -813,7 +887,7 @@
         <v>5600</v>
       </c>
       <c r="G13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H13">
@@ -821,36 +895,44 @@
         <v>23100</v>
       </c>
       <c r="J13">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K13">
         <f t="shared" si="2"/>
+        <v>41500</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
         <v>53000</v>
       </c>
-      <c r="M13">
-        <f t="shared" si="3"/>
+      <c r="P13">
+        <f t="shared" si="4"/>
         <v>-29900</v>
       </c>
-      <c r="O13">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="4"/>
+      <c r="R13">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="5"/>
         <v>1610</v>
       </c>
-      <c r="R13" s="4">
-        <f t="shared" si="5"/>
+      <c r="U13" s="4">
+        <f t="shared" si="6"/>
         <v>910.16666666666663</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>8</v>
       </c>
       <c r="D14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E14">
@@ -858,7 +940,7 @@
         <v>6400</v>
       </c>
       <c r="G14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H14">
@@ -866,36 +948,44 @@
         <v>26400</v>
       </c>
       <c r="J14">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K14">
         <f t="shared" si="2"/>
+        <v>44000</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
         <v>55000</v>
       </c>
-      <c r="M14">
-        <f t="shared" si="3"/>
+      <c r="P14">
+        <f t="shared" si="4"/>
         <v>-28600</v>
       </c>
-      <c r="O14">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="4"/>
+      <c r="R14">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="5"/>
         <v>1840</v>
       </c>
-      <c r="R14" s="4">
-        <f t="shared" si="5"/>
+      <c r="U14" s="4">
+        <f t="shared" si="6"/>
         <v>947.33333333333337</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>9</v>
       </c>
       <c r="D15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E15">
@@ -903,7 +993,7 @@
         <v>7200</v>
       </c>
       <c r="G15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H15">
@@ -911,36 +1001,44 @@
         <v>29700</v>
       </c>
       <c r="J15">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K15">
         <f t="shared" si="2"/>
+        <v>46500</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
         <v>57000</v>
       </c>
-      <c r="M15">
-        <f t="shared" si="3"/>
+      <c r="P15">
+        <f t="shared" si="4"/>
         <v>-27300</v>
       </c>
-      <c r="O15">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="4"/>
+      <c r="R15">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="5"/>
         <v>2070</v>
       </c>
-      <c r="R15" s="4">
-        <f t="shared" si="5"/>
+      <c r="U15" s="4">
+        <f t="shared" si="6"/>
         <v>984.5</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>10</v>
       </c>
       <c r="D16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E16">
@@ -948,7 +1046,7 @@
         <v>8000</v>
       </c>
       <c r="G16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H16">
@@ -956,36 +1054,44 @@
         <v>33000</v>
       </c>
       <c r="J16">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K16">
         <f t="shared" si="2"/>
+        <v>49000</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
         <v>59000</v>
       </c>
-      <c r="M16">
-        <f t="shared" si="3"/>
+      <c r="P16">
+        <f t="shared" si="4"/>
         <v>-26000</v>
       </c>
-      <c r="O16">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="4"/>
+      <c r="R16">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="5"/>
         <v>2300</v>
       </c>
-      <c r="R16" s="4">
-        <f t="shared" si="5"/>
+      <c r="U16" s="4">
+        <f t="shared" si="6"/>
         <v>1021.6666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>11</v>
       </c>
       <c r="D17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E17">
@@ -993,7 +1099,7 @@
         <v>8800</v>
       </c>
       <c r="G17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H17">
@@ -1001,36 +1107,44 @@
         <v>36300</v>
       </c>
       <c r="J17">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K17">
         <f t="shared" si="2"/>
+        <v>51500</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
         <v>61000</v>
       </c>
-      <c r="M17">
-        <f t="shared" si="3"/>
+      <c r="P17">
+        <f t="shared" si="4"/>
         <v>-24700</v>
       </c>
-      <c r="O17">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="4"/>
+      <c r="R17">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="5"/>
         <v>2530</v>
       </c>
-      <c r="R17" s="4">
-        <f t="shared" si="5"/>
+      <c r="U17" s="4">
+        <f t="shared" si="6"/>
         <v>1058.8333333333333</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>12</v>
       </c>
       <c r="D18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E18">
@@ -1038,7 +1152,7 @@
         <v>9600</v>
       </c>
       <c r="G18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H18">
@@ -1046,31 +1160,39 @@
         <v>39600</v>
       </c>
       <c r="J18">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K18">
         <f t="shared" si="2"/>
+        <v>54000</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
         <v>63000</v>
       </c>
-      <c r="M18">
-        <f t="shared" si="3"/>
+      <c r="P18">
+        <f t="shared" si="4"/>
         <v>-23400</v>
       </c>
-      <c r="O18">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="4"/>
+      <c r="R18">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="5"/>
         <v>2760</v>
       </c>
-      <c r="R18" s="4">
-        <f t="shared" si="5"/>
+      <c r="U18" s="4">
+        <f t="shared" si="6"/>
         <v>1096</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1078,7 +1200,7 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E19">
@@ -1086,7 +1208,7 @@
         <v>10400</v>
       </c>
       <c r="G19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H19">
@@ -1094,36 +1216,44 @@
         <v>42900</v>
       </c>
       <c r="J19">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K19">
         <f t="shared" si="2"/>
+        <v>56500</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="3"/>
         <v>65000</v>
       </c>
-      <c r="M19">
-        <f t="shared" si="3"/>
+      <c r="P19">
+        <f t="shared" si="4"/>
         <v>-22100</v>
       </c>
-      <c r="O19">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="4"/>
+      <c r="R19">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="5"/>
         <v>2990</v>
       </c>
-      <c r="R19" s="4">
-        <f t="shared" si="5"/>
+      <c r="U19" s="4">
+        <f t="shared" si="6"/>
         <v>1133.1666666666667</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>2</v>
       </c>
       <c r="D20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E20">
@@ -1131,7 +1261,7 @@
         <v>11200</v>
       </c>
       <c r="G20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H20">
@@ -1139,36 +1269,44 @@
         <v>46200</v>
       </c>
       <c r="J20">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K20">
         <f t="shared" si="2"/>
+        <v>59000</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="3"/>
         <v>67000</v>
       </c>
-      <c r="M20">
-        <f t="shared" si="3"/>
+      <c r="P20">
+        <f t="shared" si="4"/>
         <v>-20800</v>
       </c>
-      <c r="O20">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="4"/>
+      <c r="R20">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="5"/>
         <v>3220</v>
       </c>
-      <c r="R20" s="4">
-        <f t="shared" si="5"/>
+      <c r="U20" s="4">
+        <f t="shared" si="6"/>
         <v>1170.3333333333333</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>3</v>
       </c>
       <c r="D21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E21">
@@ -1176,7 +1314,7 @@
         <v>12000</v>
       </c>
       <c r="G21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H21">
@@ -1184,36 +1322,44 @@
         <v>49500</v>
       </c>
       <c r="J21">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K21">
         <f t="shared" si="2"/>
+        <v>61500</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="3"/>
         <v>69000</v>
       </c>
-      <c r="M21">
-        <f t="shared" si="3"/>
+      <c r="P21">
+        <f t="shared" si="4"/>
         <v>-19500</v>
       </c>
-      <c r="O21">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="4"/>
+      <c r="R21">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="5"/>
         <v>3450</v>
       </c>
-      <c r="R21" s="4">
-        <f t="shared" si="5"/>
+      <c r="U21" s="4">
+        <f t="shared" si="6"/>
         <v>1207.5</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>4</v>
       </c>
       <c r="D22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E22">
@@ -1221,7 +1367,7 @@
         <v>12800</v>
       </c>
       <c r="G22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H22">
@@ -1229,36 +1375,44 @@
         <v>52800</v>
       </c>
       <c r="J22">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K22">
         <f t="shared" si="2"/>
+        <v>64000</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="3"/>
         <v>71000</v>
       </c>
-      <c r="M22">
-        <f t="shared" si="3"/>
+      <c r="P22">
+        <f t="shared" si="4"/>
         <v>-18200</v>
       </c>
-      <c r="O22">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="4"/>
+      <c r="R22">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="5"/>
         <v>3680</v>
       </c>
-      <c r="R22" s="4">
-        <f t="shared" si="5"/>
+      <c r="U22" s="4">
+        <f t="shared" si="6"/>
         <v>1244.6666666666667</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>5</v>
       </c>
       <c r="D23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E23">
@@ -1266,7 +1420,7 @@
         <v>13600</v>
       </c>
       <c r="G23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H23">
@@ -1274,36 +1428,44 @@
         <v>56100</v>
       </c>
       <c r="J23">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K23">
         <f t="shared" si="2"/>
+        <v>66500</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="3"/>
         <v>73000</v>
       </c>
-      <c r="M23">
-        <f t="shared" si="3"/>
+      <c r="P23">
+        <f t="shared" si="4"/>
         <v>-16900</v>
       </c>
-      <c r="O23">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="4"/>
+      <c r="R23">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="5"/>
         <v>3910</v>
       </c>
-      <c r="R23" s="4">
-        <f t="shared" si="5"/>
+      <c r="U23" s="4">
+        <f t="shared" si="6"/>
         <v>1281.8333333333333</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>6</v>
       </c>
       <c r="D24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E24">
@@ -1311,7 +1473,7 @@
         <v>14400</v>
       </c>
       <c r="G24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H24">
@@ -1319,36 +1481,44 @@
         <v>59400</v>
       </c>
       <c r="J24">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K24">
         <f t="shared" si="2"/>
+        <v>69000</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="3"/>
         <v>75000</v>
       </c>
-      <c r="M24">
-        <f t="shared" si="3"/>
+      <c r="P24">
+        <f t="shared" si="4"/>
         <v>-15600</v>
       </c>
-      <c r="O24">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="4"/>
+      <c r="R24">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="5"/>
         <v>4140</v>
       </c>
-      <c r="R24" s="4">
-        <f t="shared" si="5"/>
+      <c r="U24" s="4">
+        <f t="shared" si="6"/>
         <v>1319</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>7</v>
       </c>
       <c r="D25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E25">
@@ -1356,7 +1526,7 @@
         <v>15200</v>
       </c>
       <c r="G25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H25">
@@ -1364,36 +1534,44 @@
         <v>62700</v>
       </c>
       <c r="J25">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K25">
         <f t="shared" si="2"/>
+        <v>71500</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="3"/>
         <v>77000</v>
       </c>
-      <c r="M25">
-        <f t="shared" si="3"/>
+      <c r="P25">
+        <f t="shared" si="4"/>
         <v>-14300</v>
       </c>
-      <c r="O25">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="4"/>
+      <c r="R25">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="5"/>
         <v>4370</v>
       </c>
-      <c r="R25" s="4">
-        <f t="shared" si="5"/>
+      <c r="U25" s="4">
+        <f t="shared" si="6"/>
         <v>1356.1666666666667</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>8</v>
       </c>
       <c r="D26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E26">
@@ -1401,7 +1579,7 @@
         <v>16000</v>
       </c>
       <c r="G26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H26">
@@ -1409,36 +1587,44 @@
         <v>66000</v>
       </c>
       <c r="J26">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K26">
         <f t="shared" si="2"/>
+        <v>74000</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="3"/>
         <v>79000</v>
       </c>
-      <c r="M26">
-        <f t="shared" si="3"/>
+      <c r="P26">
+        <f t="shared" si="4"/>
         <v>-13000</v>
       </c>
-      <c r="O26">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="4"/>
+      <c r="R26">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="5"/>
         <v>4600</v>
       </c>
-      <c r="R26" s="4">
-        <f t="shared" si="5"/>
+      <c r="U26" s="4">
+        <f t="shared" si="6"/>
         <v>1393.3333333333333</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>9</v>
       </c>
       <c r="D27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E27">
@@ -1446,7 +1632,7 @@
         <v>16800</v>
       </c>
       <c r="G27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H27">
@@ -1454,36 +1640,44 @@
         <v>69300</v>
       </c>
       <c r="J27">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K27">
         <f t="shared" si="2"/>
+        <v>76500</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="3"/>
         <v>81000</v>
       </c>
-      <c r="M27">
-        <f t="shared" si="3"/>
+      <c r="P27">
+        <f t="shared" si="4"/>
         <v>-11700</v>
       </c>
-      <c r="O27">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="4"/>
+      <c r="R27">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="5"/>
         <v>4830</v>
       </c>
-      <c r="R27" s="4">
-        <f t="shared" si="5"/>
+      <c r="U27" s="4">
+        <f t="shared" si="6"/>
         <v>1430.5</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>10</v>
       </c>
       <c r="D28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E28">
@@ -1491,7 +1685,7 @@
         <v>17600</v>
       </c>
       <c r="G28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H28">
@@ -1499,36 +1693,44 @@
         <v>72600</v>
       </c>
       <c r="J28">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K28">
         <f t="shared" si="2"/>
+        <v>79000</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="3"/>
         <v>83000</v>
       </c>
-      <c r="M28">
-        <f t="shared" si="3"/>
+      <c r="P28">
+        <f t="shared" si="4"/>
         <v>-10400</v>
       </c>
-      <c r="O28">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="4"/>
+      <c r="R28">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="5"/>
         <v>5060</v>
       </c>
-      <c r="R28" s="4">
-        <f t="shared" si="5"/>
+      <c r="U28" s="4">
+        <f t="shared" si="6"/>
         <v>1467.6666666666667</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>11</v>
       </c>
       <c r="D29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E29">
@@ -1536,7 +1738,7 @@
         <v>18400</v>
       </c>
       <c r="G29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H29">
@@ -1544,36 +1746,44 @@
         <v>75900</v>
       </c>
       <c r="J29">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K29">
         <f t="shared" si="2"/>
+        <v>81500</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="3"/>
         <v>85000</v>
       </c>
-      <c r="M29">
-        <f t="shared" si="3"/>
+      <c r="P29">
+        <f t="shared" si="4"/>
         <v>-9100</v>
       </c>
-      <c r="O29">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="4"/>
+      <c r="R29">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="5"/>
         <v>5290</v>
       </c>
-      <c r="R29" s="4">
-        <f t="shared" si="5"/>
+      <c r="U29" s="4">
+        <f t="shared" si="6"/>
         <v>1504.8333333333333</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>12</v>
       </c>
       <c r="D30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E30">
@@ -1581,7 +1791,7 @@
         <v>19200</v>
       </c>
       <c r="G30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H30">
@@ -1589,31 +1799,39 @@
         <v>79200</v>
       </c>
       <c r="J30">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K30">
         <f t="shared" si="2"/>
+        <v>84000</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="3"/>
         <v>87000</v>
       </c>
-      <c r="M30">
-        <f t="shared" si="3"/>
+      <c r="P30">
+        <f t="shared" si="4"/>
         <v>-7800</v>
       </c>
-      <c r="O30">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="4"/>
+      <c r="R30">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="5"/>
         <v>5520</v>
       </c>
-      <c r="R30" s="4">
-        <f t="shared" si="5"/>
+      <c r="U30" s="4">
+        <f t="shared" si="6"/>
         <v>1542</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1621,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E31">
@@ -1629,7 +1847,7 @@
         <v>20000</v>
       </c>
       <c r="G31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H31">
@@ -1637,36 +1855,44 @@
         <v>82500</v>
       </c>
       <c r="J31">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K31">
         <f t="shared" si="2"/>
+        <v>86500</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="3"/>
         <v>89000</v>
       </c>
-      <c r="M31">
-        <f t="shared" si="3"/>
+      <c r="P31">
+        <f t="shared" si="4"/>
         <v>-6500</v>
       </c>
-      <c r="O31">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="4"/>
+      <c r="R31">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="5"/>
         <v>5750</v>
       </c>
-      <c r="R31" s="4">
-        <f t="shared" si="5"/>
+      <c r="U31" s="4">
+        <f t="shared" si="6"/>
         <v>1579.1666666666667</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>2</v>
       </c>
       <c r="D32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E32">
@@ -1674,7 +1900,7 @@
         <v>20800</v>
       </c>
       <c r="G32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H32">
@@ -1682,36 +1908,44 @@
         <v>85800</v>
       </c>
       <c r="J32">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K32">
         <f t="shared" si="2"/>
+        <v>89000</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="3"/>
         <v>91000</v>
       </c>
-      <c r="M32">
-        <f t="shared" si="3"/>
+      <c r="P32">
+        <f t="shared" si="4"/>
         <v>-5200</v>
       </c>
-      <c r="O32">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="4"/>
+      <c r="R32">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="5"/>
         <v>5980</v>
       </c>
-      <c r="R32" s="4">
-        <f t="shared" si="5"/>
+      <c r="U32" s="4">
+        <f t="shared" si="6"/>
         <v>1616.3333333333333</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>3</v>
       </c>
       <c r="D33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E33">
@@ -1719,7 +1953,7 @@
         <v>21600</v>
       </c>
       <c r="G33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H33">
@@ -1727,36 +1961,44 @@
         <v>89100</v>
       </c>
       <c r="J33">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K33">
         <f t="shared" si="2"/>
+        <v>91500</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="3"/>
         <v>93000</v>
       </c>
-      <c r="M33">
-        <f t="shared" si="3"/>
+      <c r="P33">
+        <f t="shared" si="4"/>
         <v>-3900</v>
       </c>
-      <c r="O33">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="4"/>
+      <c r="R33">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="5"/>
         <v>6210</v>
       </c>
-      <c r="R33" s="4">
-        <f t="shared" si="5"/>
+      <c r="U33" s="4">
+        <f t="shared" si="6"/>
         <v>1653.5</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>4</v>
       </c>
       <c r="D34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E34">
@@ -1764,7 +2006,7 @@
         <v>22400</v>
       </c>
       <c r="G34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H34">
@@ -1772,36 +2014,44 @@
         <v>92400</v>
       </c>
       <c r="J34">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K34">
         <f t="shared" si="2"/>
+        <v>94000</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="3"/>
         <v>95000</v>
       </c>
-      <c r="M34">
-        <f t="shared" si="3"/>
+      <c r="P34">
+        <f t="shared" si="4"/>
         <v>-2600</v>
       </c>
-      <c r="O34">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="4"/>
+      <c r="R34">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="5"/>
         <v>6440</v>
       </c>
-      <c r="R34" s="4">
-        <f t="shared" si="5"/>
+      <c r="U34" s="4">
+        <f t="shared" si="6"/>
         <v>1690.6666666666667</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>5</v>
       </c>
       <c r="D35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E35">
@@ -1809,7 +2059,7 @@
         <v>23200</v>
       </c>
       <c r="G35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H35">
@@ -1817,36 +2067,44 @@
         <v>95700</v>
       </c>
       <c r="J35">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K35">
         <f t="shared" si="2"/>
+        <v>96500</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="3"/>
         <v>97000</v>
       </c>
-      <c r="M35">
-        <f t="shared" si="3"/>
+      <c r="P35">
+        <f t="shared" si="4"/>
         <v>-1300</v>
       </c>
-      <c r="O35">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="4"/>
+      <c r="R35">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="5"/>
         <v>6670</v>
       </c>
-      <c r="R35" s="4">
-        <f t="shared" si="5"/>
+      <c r="U35" s="4">
+        <f t="shared" si="6"/>
         <v>1727.8333333333333</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>6</v>
       </c>
       <c r="D36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E36">
@@ -1854,7 +2112,7 @@
         <v>24000</v>
       </c>
       <c r="G36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H36">
@@ -1862,36 +2120,44 @@
         <v>99000</v>
       </c>
       <c r="J36">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K36">
         <f t="shared" si="2"/>
         <v>99000</v>
       </c>
       <c r="M36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="3"/>
+        <v>99000</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O36">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="4"/>
+      <c r="R36">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="5"/>
         <v>6900</v>
       </c>
-      <c r="R36" s="4">
-        <f t="shared" si="5"/>
+      <c r="U36" s="4">
+        <f t="shared" si="6"/>
         <v>1765</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>7</v>
       </c>
       <c r="D37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E37">
@@ -1899,7 +2165,7 @@
         <v>24800</v>
       </c>
       <c r="G37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H37">
@@ -1907,36 +2173,44 @@
         <v>102300</v>
       </c>
       <c r="J37">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K37">
         <f t="shared" si="2"/>
+        <v>101500</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="3"/>
         <v>101000</v>
       </c>
-      <c r="M37">
-        <f t="shared" si="3"/>
+      <c r="P37">
+        <f t="shared" si="4"/>
         <v>1300</v>
       </c>
-      <c r="O37">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="4"/>
+      <c r="R37">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="5"/>
         <v>7130</v>
       </c>
-      <c r="R37" s="4">
-        <f t="shared" si="5"/>
+      <c r="U37" s="4">
+        <f t="shared" si="6"/>
         <v>1802.1666666666667</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>8</v>
       </c>
       <c r="D38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E38">
@@ -1944,7 +2218,7 @@
         <v>25600</v>
       </c>
       <c r="G38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H38">
@@ -1952,36 +2226,44 @@
         <v>105600</v>
       </c>
       <c r="J38">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K38">
         <f t="shared" si="2"/>
+        <v>104000</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="3"/>
         <v>103000</v>
       </c>
-      <c r="M38">
-        <f t="shared" si="3"/>
+      <c r="P38">
+        <f t="shared" si="4"/>
         <v>2600</v>
       </c>
-      <c r="O38">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="4"/>
+      <c r="R38">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="5"/>
         <v>7360</v>
       </c>
-      <c r="R38" s="4">
-        <f t="shared" si="5"/>
+      <c r="U38" s="4">
+        <f t="shared" si="6"/>
         <v>1839.3333333333333</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>9</v>
       </c>
       <c r="D39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E39">
@@ -1989,7 +2271,7 @@
         <v>26400</v>
       </c>
       <c r="G39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H39">
@@ -1997,36 +2279,44 @@
         <v>108900</v>
       </c>
       <c r="J39">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K39">
         <f t="shared" si="2"/>
+        <v>106500</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="3"/>
         <v>105000</v>
       </c>
-      <c r="M39">
-        <f t="shared" si="3"/>
+      <c r="P39">
+        <f t="shared" si="4"/>
         <v>3900</v>
       </c>
-      <c r="O39">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="4"/>
+      <c r="R39">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="5"/>
         <v>7590</v>
       </c>
-      <c r="R39" s="4">
-        <f t="shared" si="5"/>
+      <c r="U39" s="4">
+        <f t="shared" si="6"/>
         <v>1876.5</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>10</v>
       </c>
       <c r="D40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E40">
@@ -2034,7 +2324,7 @@
         <v>27200</v>
       </c>
       <c r="G40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H40">
@@ -2042,36 +2332,44 @@
         <v>112200</v>
       </c>
       <c r="J40">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K40">
         <f t="shared" si="2"/>
+        <v>109000</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="3"/>
         <v>107000</v>
       </c>
-      <c r="M40">
-        <f t="shared" si="3"/>
+      <c r="P40">
+        <f t="shared" si="4"/>
         <v>5200</v>
       </c>
-      <c r="O40">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="4"/>
+      <c r="R40">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="5"/>
         <v>7820</v>
       </c>
-      <c r="R40" s="4">
-        <f t="shared" si="5"/>
+      <c r="U40" s="4">
+        <f t="shared" si="6"/>
         <v>1913.6666666666667</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>11</v>
       </c>
       <c r="D41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E41">
@@ -2079,7 +2377,7 @@
         <v>28000</v>
       </c>
       <c r="G41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H41">
@@ -2087,36 +2385,44 @@
         <v>115500</v>
       </c>
       <c r="J41">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K41">
         <f t="shared" si="2"/>
+        <v>111500</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="3"/>
         <v>109000</v>
       </c>
-      <c r="M41">
-        <f t="shared" si="3"/>
+      <c r="P41">
+        <f t="shared" si="4"/>
         <v>6500</v>
       </c>
-      <c r="O41">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="4"/>
+      <c r="R41">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="5"/>
         <v>8050</v>
       </c>
-      <c r="R41" s="4">
-        <f t="shared" si="5"/>
+      <c r="U41" s="4">
+        <f t="shared" si="6"/>
         <v>1950.8333333333333</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>12</v>
       </c>
       <c r="D42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E42">
@@ -2124,7 +2430,7 @@
         <v>28800</v>
       </c>
       <c r="G42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H42">
@@ -2132,31 +2438,39 @@
         <v>118800</v>
       </c>
       <c r="J42">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K42">
         <f t="shared" si="2"/>
+        <v>114000</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="3"/>
         <v>111000</v>
       </c>
-      <c r="M42">
-        <f t="shared" si="3"/>
+      <c r="P42">
+        <f t="shared" si="4"/>
         <v>7800</v>
       </c>
-      <c r="O42">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P42">
-        <f t="shared" si="4"/>
+      <c r="R42">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="5"/>
         <v>8280</v>
       </c>
-      <c r="R42" s="4">
-        <f t="shared" si="5"/>
+      <c r="U42" s="4">
+        <f t="shared" si="6"/>
         <v>1988</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -2164,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E43">
@@ -2172,7 +2486,7 @@
         <v>29600</v>
       </c>
       <c r="G43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H43">
@@ -2180,36 +2494,44 @@
         <v>122100</v>
       </c>
       <c r="J43">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K43">
         <f t="shared" si="2"/>
+        <v>116500</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="3"/>
         <v>113000</v>
       </c>
-      <c r="M43">
-        <f t="shared" si="3"/>
+      <c r="P43">
+        <f t="shared" si="4"/>
         <v>9100</v>
       </c>
-      <c r="O43">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P43">
-        <f t="shared" si="4"/>
+      <c r="R43">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="5"/>
         <v>8510</v>
       </c>
-      <c r="R43" s="4">
-        <f t="shared" si="5"/>
+      <c r="U43" s="4">
+        <f t="shared" si="6"/>
         <v>2025.1666666666667</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>2</v>
       </c>
       <c r="D44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E44">
@@ -2217,7 +2539,7 @@
         <v>30400</v>
       </c>
       <c r="G44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H44">
@@ -2225,36 +2547,44 @@
         <v>125400</v>
       </c>
       <c r="J44">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K44">
         <f t="shared" si="2"/>
+        <v>119000</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="3"/>
         <v>115000</v>
       </c>
-      <c r="M44">
-        <f t="shared" si="3"/>
+      <c r="P44">
+        <f t="shared" si="4"/>
         <v>10400</v>
       </c>
-      <c r="O44">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P44">
-        <f t="shared" si="4"/>
+      <c r="R44">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="5"/>
         <v>8740</v>
       </c>
-      <c r="R44" s="4">
-        <f t="shared" si="5"/>
+      <c r="U44" s="4">
+        <f t="shared" si="6"/>
         <v>2062.3333333333335</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>3</v>
       </c>
       <c r="D45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E45">
@@ -2262,7 +2592,7 @@
         <v>31200</v>
       </c>
       <c r="G45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H45">
@@ -2270,36 +2600,44 @@
         <v>128700</v>
       </c>
       <c r="J45">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K45">
         <f t="shared" si="2"/>
+        <v>121500</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="3"/>
         <v>117000</v>
       </c>
-      <c r="M45">
-        <f t="shared" si="3"/>
+      <c r="P45">
+        <f t="shared" si="4"/>
         <v>11700</v>
       </c>
-      <c r="O45">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P45">
-        <f t="shared" si="4"/>
+      <c r="R45">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="5"/>
         <v>8970</v>
       </c>
-      <c r="R45" s="4">
-        <f t="shared" si="5"/>
+      <c r="U45" s="4">
+        <f t="shared" si="6"/>
         <v>2099.5</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>4</v>
       </c>
       <c r="D46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E46">
@@ -2307,7 +2645,7 @@
         <v>32000</v>
       </c>
       <c r="G46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H46">
@@ -2315,36 +2653,44 @@
         <v>132000</v>
       </c>
       <c r="J46">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K46">
         <f t="shared" si="2"/>
+        <v>124000</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="3"/>
         <v>119000</v>
       </c>
-      <c r="M46">
-        <f t="shared" si="3"/>
+      <c r="P46">
+        <f t="shared" si="4"/>
         <v>13000</v>
       </c>
-      <c r="O46">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="4"/>
+      <c r="R46">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="5"/>
         <v>9200</v>
       </c>
-      <c r="R46" s="4">
-        <f t="shared" si="5"/>
+      <c r="U46" s="4">
+        <f t="shared" si="6"/>
         <v>2136.6666666666665</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>5</v>
       </c>
       <c r="D47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E47">
@@ -2352,7 +2698,7 @@
         <v>32800</v>
       </c>
       <c r="G47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H47">
@@ -2360,36 +2706,44 @@
         <v>135300</v>
       </c>
       <c r="J47">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K47">
         <f t="shared" si="2"/>
+        <v>126500</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="3"/>
         <v>121000</v>
       </c>
-      <c r="M47">
-        <f t="shared" si="3"/>
+      <c r="P47">
+        <f t="shared" si="4"/>
         <v>14300</v>
       </c>
-      <c r="O47">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P47">
-        <f t="shared" si="4"/>
+      <c r="R47">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="5"/>
         <v>9430</v>
       </c>
-      <c r="R47" s="4">
-        <f t="shared" si="5"/>
+      <c r="U47" s="4">
+        <f t="shared" si="6"/>
         <v>2173.8333333333335</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>6</v>
       </c>
       <c r="D48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E48">
@@ -2397,7 +2751,7 @@
         <v>33600</v>
       </c>
       <c r="G48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H48">
@@ -2405,36 +2759,44 @@
         <v>138600</v>
       </c>
       <c r="J48">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K48">
         <f t="shared" si="2"/>
+        <v>129000</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="3"/>
         <v>123000</v>
       </c>
-      <c r="M48">
-        <f t="shared" si="3"/>
+      <c r="P48">
+        <f t="shared" si="4"/>
         <v>15600</v>
       </c>
-      <c r="O48">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P48">
-        <f t="shared" si="4"/>
+      <c r="R48">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="5"/>
         <v>9660</v>
       </c>
-      <c r="R48" s="4">
-        <f t="shared" si="5"/>
+      <c r="U48" s="4">
+        <f t="shared" si="6"/>
         <v>2211</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>7</v>
       </c>
       <c r="D49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E49">
@@ -2442,7 +2804,7 @@
         <v>34400</v>
       </c>
       <c r="G49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H49">
@@ -2450,36 +2812,44 @@
         <v>141900</v>
       </c>
       <c r="J49">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K49">
         <f t="shared" si="2"/>
+        <v>131500</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="3"/>
         <v>125000</v>
       </c>
-      <c r="M49">
-        <f t="shared" si="3"/>
+      <c r="P49">
+        <f t="shared" si="4"/>
         <v>16900</v>
       </c>
-      <c r="O49">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P49">
-        <f t="shared" si="4"/>
+      <c r="R49">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="5"/>
         <v>9890</v>
       </c>
-      <c r="R49" s="4">
-        <f t="shared" si="5"/>
+      <c r="U49" s="4">
+        <f t="shared" si="6"/>
         <v>2248.1666666666665</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>8</v>
       </c>
       <c r="D50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E50">
@@ -2487,7 +2857,7 @@
         <v>35200</v>
       </c>
       <c r="G50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H50">
@@ -2495,36 +2865,44 @@
         <v>145200</v>
       </c>
       <c r="J50">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K50">
         <f t="shared" si="2"/>
+        <v>134000</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="3"/>
         <v>127000</v>
       </c>
-      <c r="M50">
-        <f t="shared" si="3"/>
+      <c r="P50">
+        <f t="shared" si="4"/>
         <v>18200</v>
       </c>
-      <c r="O50">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P50">
-        <f t="shared" si="4"/>
+      <c r="R50">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="5"/>
         <v>10120</v>
       </c>
-      <c r="R50" s="4">
-        <f t="shared" si="5"/>
+      <c r="U50" s="4">
+        <f t="shared" si="6"/>
         <v>2285.3333333333335</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>9</v>
       </c>
       <c r="D51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E51">
@@ -2532,7 +2910,7 @@
         <v>36000</v>
       </c>
       <c r="G51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H51">
@@ -2540,36 +2918,44 @@
         <v>148500</v>
       </c>
       <c r="J51">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K51">
         <f t="shared" si="2"/>
+        <v>136500</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="3"/>
         <v>129000</v>
       </c>
-      <c r="M51">
-        <f t="shared" si="3"/>
+      <c r="P51">
+        <f t="shared" si="4"/>
         <v>19500</v>
       </c>
-      <c r="O51">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P51">
-        <f t="shared" si="4"/>
+      <c r="R51">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="5"/>
         <v>10350</v>
       </c>
-      <c r="R51" s="4">
-        <f t="shared" si="5"/>
+      <c r="U51" s="4">
+        <f t="shared" si="6"/>
         <v>2322.5</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>10</v>
       </c>
       <c r="D52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E52">
@@ -2577,7 +2963,7 @@
         <v>36800</v>
       </c>
       <c r="G52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H52">
@@ -2585,36 +2971,44 @@
         <v>151800</v>
       </c>
       <c r="J52">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K52">
         <f t="shared" si="2"/>
+        <v>139000</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="3"/>
         <v>131000</v>
       </c>
-      <c r="M52">
-        <f t="shared" si="3"/>
+      <c r="P52">
+        <f t="shared" si="4"/>
         <v>20800</v>
       </c>
-      <c r="O52">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P52">
-        <f t="shared" si="4"/>
+      <c r="R52">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="5"/>
         <v>10580</v>
       </c>
-      <c r="R52" s="4">
-        <f t="shared" si="5"/>
+      <c r="U52" s="4">
+        <f t="shared" si="6"/>
         <v>2359.6666666666665</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>11</v>
       </c>
       <c r="D53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E53">
@@ -2622,7 +3016,7 @@
         <v>37600</v>
       </c>
       <c r="G53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H53">
@@ -2630,36 +3024,44 @@
         <v>155100</v>
       </c>
       <c r="J53">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K53">
         <f t="shared" si="2"/>
+        <v>141500</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="3"/>
         <v>133000</v>
       </c>
-      <c r="M53">
-        <f t="shared" si="3"/>
+      <c r="P53">
+        <f t="shared" si="4"/>
         <v>22100</v>
       </c>
-      <c r="O53">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P53">
-        <f t="shared" si="4"/>
+      <c r="R53">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="5"/>
         <v>10810</v>
       </c>
-      <c r="R53" s="4">
-        <f t="shared" si="5"/>
+      <c r="U53" s="4">
+        <f t="shared" si="6"/>
         <v>2396.8333333333335</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>12</v>
       </c>
       <c r="D54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E54">
@@ -2667,7 +3069,7 @@
         <v>38400</v>
       </c>
       <c r="G54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H54">
@@ -2675,31 +3077,39 @@
         <v>158400</v>
       </c>
       <c r="J54">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K54">
         <f t="shared" si="2"/>
+        <v>144000</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="3"/>
         <v>135000</v>
       </c>
-      <c r="M54">
-        <f t="shared" si="3"/>
+      <c r="P54">
+        <f t="shared" si="4"/>
         <v>23400</v>
       </c>
-      <c r="O54">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P54">
-        <f t="shared" si="4"/>
+      <c r="R54">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="5"/>
         <v>11040</v>
       </c>
-      <c r="R54" s="4">
-        <f t="shared" si="5"/>
+      <c r="U54" s="4">
+        <f t="shared" si="6"/>
         <v>2434</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -2707,7 +3117,7 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E55">
@@ -2715,7 +3125,7 @@
         <v>39200</v>
       </c>
       <c r="G55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H55">
@@ -2723,36 +3133,44 @@
         <v>161700</v>
       </c>
       <c r="J55">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K55">
         <f t="shared" si="2"/>
+        <v>146500</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="3"/>
         <v>137000</v>
       </c>
-      <c r="M55">
-        <f t="shared" si="3"/>
+      <c r="P55">
+        <f t="shared" si="4"/>
         <v>24700</v>
       </c>
-      <c r="O55">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P55">
-        <f t="shared" si="4"/>
+      <c r="R55">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="5"/>
         <v>11270</v>
       </c>
-      <c r="R55" s="4">
-        <f t="shared" si="5"/>
+      <c r="U55" s="4">
+        <f t="shared" si="6"/>
         <v>2471.1666666666665</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>2</v>
       </c>
       <c r="D56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E56">
@@ -2760,7 +3178,7 @@
         <v>40000</v>
       </c>
       <c r="G56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H56">
@@ -2768,36 +3186,44 @@
         <v>165000</v>
       </c>
       <c r="J56">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K56">
         <f t="shared" si="2"/>
+        <v>149000</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="3"/>
         <v>139000</v>
       </c>
-      <c r="M56">
-        <f t="shared" si="3"/>
+      <c r="P56">
+        <f t="shared" si="4"/>
         <v>26000</v>
       </c>
-      <c r="O56">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P56">
-        <f t="shared" si="4"/>
+      <c r="R56">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="5"/>
         <v>11500</v>
       </c>
-      <c r="R56" s="4">
-        <f t="shared" si="5"/>
+      <c r="U56" s="4">
+        <f t="shared" si="6"/>
         <v>2508.3333333333335</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>3</v>
       </c>
       <c r="D57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E57">
@@ -2805,7 +3231,7 @@
         <v>40800</v>
       </c>
       <c r="G57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H57">
@@ -2813,36 +3239,44 @@
         <v>168300</v>
       </c>
       <c r="J57">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K57">
         <f t="shared" si="2"/>
+        <v>151500</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="3"/>
         <v>141000</v>
       </c>
-      <c r="M57">
-        <f t="shared" si="3"/>
+      <c r="P57">
+        <f t="shared" si="4"/>
         <v>27300</v>
       </c>
-      <c r="O57">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P57">
-        <f t="shared" si="4"/>
+      <c r="R57">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="5"/>
         <v>11730</v>
       </c>
-      <c r="R57" s="4">
-        <f t="shared" si="5"/>
+      <c r="U57" s="4">
+        <f t="shared" si="6"/>
         <v>2545.5</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>4</v>
       </c>
       <c r="D58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E58">
@@ -2850,7 +3284,7 @@
         <v>41600</v>
       </c>
       <c r="G58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H58">
@@ -2858,36 +3292,44 @@
         <v>171600</v>
       </c>
       <c r="J58">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K58">
         <f t="shared" si="2"/>
+        <v>154000</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="3"/>
         <v>143000</v>
       </c>
-      <c r="M58">
-        <f t="shared" si="3"/>
+      <c r="P58">
+        <f t="shared" si="4"/>
         <v>28600</v>
       </c>
-      <c r="O58">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P58">
-        <f t="shared" si="4"/>
+      <c r="R58">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="5"/>
         <v>11960</v>
       </c>
-      <c r="R58" s="4">
-        <f t="shared" si="5"/>
+      <c r="U58" s="4">
+        <f t="shared" si="6"/>
         <v>2582.6666666666665</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>5</v>
       </c>
       <c r="D59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E59">
@@ -2895,7 +3337,7 @@
         <v>42400</v>
       </c>
       <c r="G59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H59">
@@ -2903,36 +3345,44 @@
         <v>174900</v>
       </c>
       <c r="J59">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K59">
         <f t="shared" si="2"/>
+        <v>156500</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="3"/>
         <v>145000</v>
       </c>
-      <c r="M59">
-        <f t="shared" si="3"/>
+      <c r="P59">
+        <f t="shared" si="4"/>
         <v>29900</v>
       </c>
-      <c r="O59">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P59">
-        <f t="shared" si="4"/>
+      <c r="R59">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="5"/>
         <v>12190</v>
       </c>
-      <c r="R59" s="4">
-        <f t="shared" si="5"/>
+      <c r="U59" s="4">
+        <f t="shared" si="6"/>
         <v>2619.8333333333335</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>6</v>
       </c>
       <c r="D60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E60">
@@ -2940,7 +3390,7 @@
         <v>43200</v>
       </c>
       <c r="G60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H60">
@@ -2948,36 +3398,44 @@
         <v>178200</v>
       </c>
       <c r="J60">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K60">
         <f t="shared" si="2"/>
+        <v>159000</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="3"/>
         <v>147000</v>
       </c>
-      <c r="M60">
-        <f t="shared" si="3"/>
+      <c r="P60">
+        <f t="shared" si="4"/>
         <v>31200</v>
       </c>
-      <c r="O60">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P60">
-        <f t="shared" si="4"/>
+      <c r="R60">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="5"/>
         <v>12420</v>
       </c>
-      <c r="R60" s="4">
-        <f t="shared" si="5"/>
+      <c r="U60" s="4">
+        <f t="shared" si="6"/>
         <v>2657</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>7</v>
       </c>
       <c r="D61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E61">
@@ -2985,7 +3443,7 @@
         <v>44000</v>
       </c>
       <c r="G61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H61">
@@ -2993,36 +3451,44 @@
         <v>181500</v>
       </c>
       <c r="J61">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K61">
         <f t="shared" si="2"/>
+        <v>161500</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="3"/>
         <v>149000</v>
       </c>
-      <c r="M61">
-        <f t="shared" si="3"/>
+      <c r="P61">
+        <f t="shared" si="4"/>
         <v>32500</v>
       </c>
-      <c r="O61">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P61">
-        <f t="shared" si="4"/>
+      <c r="R61">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="5"/>
         <v>12650</v>
       </c>
-      <c r="R61" s="4">
-        <f t="shared" si="5"/>
+      <c r="U61" s="4">
+        <f t="shared" si="6"/>
         <v>2694.1666666666665</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>8</v>
       </c>
       <c r="D62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E62">
@@ -3030,7 +3496,7 @@
         <v>44800</v>
       </c>
       <c r="G62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H62">
@@ -3038,36 +3504,44 @@
         <v>184800</v>
       </c>
       <c r="J62">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K62">
         <f t="shared" si="2"/>
+        <v>164000</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="3"/>
         <v>151000</v>
       </c>
-      <c r="M62">
-        <f t="shared" si="3"/>
+      <c r="P62">
+        <f t="shared" si="4"/>
         <v>33800</v>
       </c>
-      <c r="O62">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P62">
-        <f t="shared" si="4"/>
+      <c r="R62">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="5"/>
         <v>12880</v>
       </c>
-      <c r="R62" s="4">
-        <f t="shared" si="5"/>
+      <c r="U62" s="4">
+        <f t="shared" si="6"/>
         <v>2731.3333333333335</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>9</v>
       </c>
       <c r="D63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E63">
@@ -3075,7 +3549,7 @@
         <v>45600</v>
       </c>
       <c r="G63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H63">
@@ -3083,36 +3557,44 @@
         <v>188100</v>
       </c>
       <c r="J63">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K63">
         <f t="shared" si="2"/>
+        <v>166500</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="3"/>
         <v>153000</v>
       </c>
-      <c r="M63">
-        <f t="shared" si="3"/>
+      <c r="P63">
+        <f t="shared" si="4"/>
         <v>35100</v>
       </c>
-      <c r="O63">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P63">
-        <f t="shared" si="4"/>
+      <c r="R63">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="5"/>
         <v>13110</v>
       </c>
-      <c r="R63" s="4">
-        <f t="shared" si="5"/>
+      <c r="U63" s="4">
+        <f t="shared" si="6"/>
         <v>2768.5</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>10</v>
       </c>
       <c r="D64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E64">
@@ -3120,7 +3602,7 @@
         <v>46400</v>
       </c>
       <c r="G64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H64">
@@ -3128,36 +3610,44 @@
         <v>191400</v>
       </c>
       <c r="J64">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K64">
         <f t="shared" si="2"/>
+        <v>169000</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="3"/>
         <v>155000</v>
       </c>
-      <c r="M64">
-        <f t="shared" si="3"/>
+      <c r="P64">
+        <f t="shared" si="4"/>
         <v>36400</v>
       </c>
-      <c r="O64">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P64">
-        <f t="shared" si="4"/>
+      <c r="R64">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="5"/>
         <v>13340</v>
       </c>
-      <c r="R64" s="4">
-        <f t="shared" si="5"/>
+      <c r="U64" s="4">
+        <f t="shared" si="6"/>
         <v>2805.6666666666665</v>
       </c>
     </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>11</v>
       </c>
       <c r="D65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E65">
@@ -3165,7 +3655,7 @@
         <v>47200</v>
       </c>
       <c r="G65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H65">
@@ -3173,36 +3663,44 @@
         <v>194700</v>
       </c>
       <c r="J65">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K65">
         <f t="shared" si="2"/>
+        <v>171500</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="3"/>
         <v>157000</v>
       </c>
-      <c r="M65">
-        <f t="shared" si="3"/>
+      <c r="P65">
+        <f t="shared" si="4"/>
         <v>37700</v>
       </c>
-      <c r="O65">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P65">
-        <f t="shared" si="4"/>
+      <c r="R65">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="5"/>
         <v>13570</v>
       </c>
-      <c r="R65" s="4">
-        <f t="shared" si="5"/>
+      <c r="U65" s="4">
+        <f t="shared" si="6"/>
         <v>2842.8333333333335</v>
       </c>
     </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>12</v>
       </c>
       <c r="D66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E66">
@@ -3210,7 +3708,7 @@
         <v>48000</v>
       </c>
       <c r="G66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
       <c r="H66">
@@ -3218,162 +3716,228 @@
         <v>198000</v>
       </c>
       <c r="J66">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
       <c r="K66">
         <f t="shared" si="2"/>
+        <v>174000</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="3"/>
         <v>159000</v>
       </c>
-      <c r="M66">
-        <f t="shared" si="3"/>
+      <c r="P66">
+        <f t="shared" si="4"/>
         <v>39000</v>
       </c>
-      <c r="O66">
-        <f t="shared" si="9"/>
-        <v>230</v>
-      </c>
-      <c r="P66">
-        <f t="shared" si="4"/>
+      <c r="R66">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="5"/>
         <v>13800</v>
       </c>
-      <c r="R66" s="4">
-        <f t="shared" si="5"/>
+      <c r="U66" s="4">
+        <f t="shared" si="6"/>
         <v>2880</v>
       </c>
     </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="G68">
+    <row r="68" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D68">
         <v>500</v>
       </c>
-      <c r="H68" t="s">
+      <c r="E68" t="s">
         <v>16</v>
       </c>
       <c r="K68">
+        <f>+H66-K66</f>
+        <v>24000</v>
+      </c>
+      <c r="N68">
+        <f>+H66-N66</f>
+        <v>39000</v>
+      </c>
+      <c r="R68" s="4"/>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>300</v>
+      </c>
+      <c r="E69" t="s">
+        <v>17</v>
+      </c>
+      <c r="R69" s="4"/>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>2000</v>
+      </c>
+      <c r="E70" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70">
+        <f>+H66</f>
         <v>198000</v>
       </c>
-      <c r="M68">
+      <c r="I70">
         <v>100</v>
       </c>
-      <c r="O68" s="4">
-        <f>+K68/M68</f>
+      <c r="J70" s="4">
+        <f>+H70/I70</f>
         <v>1980</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="G69">
-        <v>300</v>
-      </c>
-      <c r="H69" t="s">
-        <v>17</v>
-      </c>
-      <c r="K69">
+      <c r="K70">
+        <f>+K66</f>
+        <v>174000</v>
+      </c>
+      <c r="L70">
+        <v>100</v>
+      </c>
+      <c r="M70" s="4">
+        <f>+K70/L70</f>
+        <v>1740</v>
+      </c>
+      <c r="N70">
+        <f>+N66</f>
+        <v>159000</v>
+      </c>
+      <c r="O70">
+        <v>100</v>
+      </c>
+      <c r="P70" s="4">
+        <f>+N70/O70</f>
+        <v>1590</v>
+      </c>
+      <c r="R70" s="4"/>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>500</v>
+      </c>
+      <c r="E71" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71">
+        <f>+H66</f>
         <v>198000</v>
       </c>
-      <c r="M69">
+      <c r="I71">
         <v>90</v>
       </c>
-      <c r="O69" s="4">
-        <f t="shared" ref="O69:O71" si="10">+K69/M69</f>
+      <c r="J71" s="4">
+        <f>+H71/I71</f>
         <v>2200</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="G70">
-        <v>2000</v>
-      </c>
-      <c r="H70" t="s">
-        <v>18</v>
-      </c>
-      <c r="K70">
+      <c r="K71">
+        <f>+K66</f>
+        <v>174000</v>
+      </c>
+      <c r="L71">
+        <v>90</v>
+      </c>
+      <c r="M71" s="4">
+        <f>+K71/L71</f>
+        <v>1933.3333333333333</v>
+      </c>
+      <c r="N71">
+        <f>+N66</f>
+        <v>159000</v>
+      </c>
+      <c r="O71">
+        <v>90</v>
+      </c>
+      <c r="P71" s="4">
+        <f>+N71/O71</f>
+        <v>1766.6666666666667</v>
+      </c>
+      <c r="R71" s="4"/>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72">
+        <f>+H66</f>
         <v>198000</v>
       </c>
-      <c r="M70">
+      <c r="I72">
         <v>80</v>
       </c>
-      <c r="O70" s="4">
-        <f t="shared" si="10"/>
+      <c r="J72" s="4">
+        <f>+H72/I72</f>
         <v>2475</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="G71">
-        <v>500</v>
-      </c>
-      <c r="H71" t="s">
-        <v>19</v>
-      </c>
-      <c r="K71">
+      <c r="K72">
+        <f>+K66</f>
+        <v>174000</v>
+      </c>
+      <c r="L72">
+        <v>80</v>
+      </c>
+      <c r="M72" s="4">
+        <f>+K72/L72</f>
+        <v>2175</v>
+      </c>
+      <c r="N72">
+        <f>+N66</f>
+        <v>159000</v>
+      </c>
+      <c r="O72">
+        <v>80</v>
+      </c>
+      <c r="P72" s="4">
+        <f>+N72/O72</f>
+        <v>1987.5</v>
+      </c>
+      <c r="R72" s="4"/>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>3300</v>
+      </c>
+      <c r="H73">
+        <f>+H66</f>
         <v>198000</v>
       </c>
-      <c r="M71">
+      <c r="I73">
         <v>70</v>
       </c>
-      <c r="O71" s="4">
-        <f t="shared" si="10"/>
+      <c r="J73" s="4">
+        <f>+H73/I73</f>
         <v>2828.5714285714284</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="G72" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O72" s="4"/>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="G73">
-        <v>3300</v>
-      </c>
       <c r="K73">
+        <f>+K66</f>
+        <v>174000</v>
+      </c>
+      <c r="L73">
+        <v>70</v>
+      </c>
+      <c r="M73" s="4">
+        <f>+K73/L73</f>
+        <v>2485.7142857142858</v>
+      </c>
+      <c r="N73">
+        <f>+N66</f>
         <v>159000</v>
       </c>
-      <c r="M73">
-        <v>100</v>
-      </c>
-      <c r="O73" s="4">
-        <f>+K73/M73</f>
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="K74">
-        <v>159000</v>
-      </c>
-      <c r="M74">
-        <v>90</v>
-      </c>
-      <c r="O74" s="4">
-        <f t="shared" ref="O74:O76" si="11">+K74/M74</f>
-        <v>1766.6666666666667</v>
-      </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="K75">
-        <v>159000</v>
-      </c>
-      <c r="M75">
-        <v>80</v>
-      </c>
-      <c r="O75" s="4">
-        <f t="shared" si="11"/>
-        <v>1987.5</v>
-      </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="K76">
-        <v>159000</v>
-      </c>
-      <c r="M76">
+      <c r="O73">
         <v>70</v>
       </c>
-      <c r="O76" s="4">
-        <f t="shared" si="11"/>
+      <c r="P73" s="4">
+        <f>+N73/O73</f>
         <v>2271.4285714285716</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
